--- a/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,78; 11,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,83; 8,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,0; 5,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,87; 7,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>4,77; 16,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>3,82; 14,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,39; 7,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,87; 5,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>4,13; 11,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>2,77; 8,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,83; 5,68</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,82; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,09; 5,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,32; 3,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,7; 7,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,08; 5,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,86; 9,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,57; 10,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,35; 9,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,29; 4,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,92; 6,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,88; 6,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,49; 7,91</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,61; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,0; 4,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,13; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,22; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,42; 7,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,49; 9,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,14; 8,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,89; 12,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,3; 5,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,46; 6,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,95; 6,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>5,93; 7,9</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,14; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,94; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,66; 5,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,83; 7,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,21; 8,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,36; 8,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,55; 9,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,49; 8,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,43; 5,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,48; 5,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,61; 6,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,78; 7,54</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,95; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,51; 5,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,15; 5,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,94; 6,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,03; 6,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,63; 8,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,09; 10,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,4; 11,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,42; 5,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,48; 6,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,57; 7,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,11; 8,52</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,11; 3,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,66; 4,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,94; 4,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,81; 5,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,26; 8,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,78; 8,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,61; 9,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,49; 4,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,75; 5,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,0; 6,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,07; 7,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>1,89; 4,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 11,05</t>
+          <t>2,15; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 8,16</t>
+          <t>1,34; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>2,99; 6,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,7</t>
+          <t>2,12; 4,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,55</t>
+          <t>5,28; 9,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,17</t>
+          <t>5,84; 9,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,96</t>
+          <t>5,87; 8,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,5</t>
+          <t>2,35; 4,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,6</t>
+          <t>4,14; 6,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,79</t>
+          <t>4,03; 6,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,68</t>
+          <t>4,9; 7,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,62</t>
+          <t>1,61; 3,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,17</t>
+          <t>2,0; 4,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,9</t>
+          <t>2,13; 4,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,22</t>
+          <t>1,34; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,15</t>
+          <t>4,42; 7,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,29</t>
+          <t>6,49; 9,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,09</t>
+          <t>5,14; 8,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,45</t>
+          <t>8,85; 12,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,33</t>
+          <t>3,3; 5,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,6</t>
+          <t>4,46; 6,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,6</t>
+          <t>3,95; 6,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,91</t>
+          <t>3,99; 7,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,75</t>
+          <t>1,14; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,12</t>
+          <t>1,94; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,48</t>
+          <t>2,66; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,52</t>
+          <t>3,68; 6,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,58</t>
+          <t>5,21; 8,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,87</t>
+          <t>4,36; 8,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,4</t>
+          <t>5,55; 9,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,09</t>
+          <t>2,93; 8,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,17</t>
+          <t>3,43; 5,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,59</t>
+          <t>3,48; 5,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,03</t>
+          <t>4,61; 6,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 7,9</t>
+          <t>3,62; 6,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,23</t>
+          <t>1,95; 4,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,36</t>
+          <t>2,51; 5,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,67</t>
+          <t>3,15; 5,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,14</t>
+          <t>3,89; 6,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,88</t>
+          <t>4,03; 6,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,27</t>
+          <t>5,63; 8,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,4</t>
+          <t>7,09; 10,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,88</t>
+          <t>6,2; 9,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,5</t>
+          <t>3,42; 5,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,99</t>
+          <t>4,48; 6,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,98</t>
+          <t>5,57; 7,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,54</t>
+          <t>5,64; 7,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,15</t>
+          <t>2,11; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,33</t>
+          <t>2,66; 4,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,85</t>
+          <t>2,94; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,69</t>
+          <t>3,16; 4,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,71</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,76</t>
+          <t>6,26; 8,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,68</t>
+          <t>6,78; 8,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,02</t>
+          <t>6,52; 9,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,23</t>
+          <t>3,49; 4,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,65</t>
+          <t>4,75; 5,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 7,82</t>
+          <t>5,0; 6,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,52</t>
+          <t>5,23; 6,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 3,2</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 4,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 4,19</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 5,23</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,53; 6,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,26; 8,1</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 8,59</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 9,55</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,49; 4,43</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 5,93</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 6,15</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 7,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,39</t>
+          <t>1,87; 4,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,08</t>
+          <t>2,2; 5,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,72</t>
+          <t>1,44; 3,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,16</t>
+          <t>3,04; 6,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,9</t>
+          <t>2,15; 4,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,27</t>
+          <t>5,26; 9,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,84</t>
+          <t>5,85; 9,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,66</t>
+          <t>5,8; 8,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,11</t>
+          <t>2,19; 4,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 6,72</t>
+          <t>4,13; 6,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,49</t>
+          <t>4,02; 6,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,08</t>
+          <t>4,84; 6,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,75</t>
+          <t>1,6; 3,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,12</t>
+          <t>2,0; 4,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,48</t>
+          <t>2,14; 4,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,86</t>
+          <t>1,37; 3,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,58</t>
+          <t>4,29; 7,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,87</t>
+          <t>6,27; 9,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,4</t>
+          <t>5,21; 8,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,0</t>
+          <t>8,86; 11,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,17</t>
+          <t>3,3; 5,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,59</t>
+          <t>4,52; 6,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,03</t>
+          <t>3,94; 5,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,34</t>
+          <t>4,21; 7,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,23</t>
+          <t>1,08; 3,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,36</t>
+          <t>1,89; 5,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,67</t>
+          <t>2,64; 5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,88</t>
+          <t>3,41; 6,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,88</t>
+          <t>5,15; 8,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,27</t>
+          <t>4,42; 8,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,4</t>
+          <t>5,62; 9,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,16</t>
+          <t>2,96; 8,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,5</t>
+          <t>3,48; 5,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,99</t>
+          <t>3,53; 5,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,98</t>
+          <t>4,62; 6,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,86</t>
+          <t>3,71; 6,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,15</t>
+          <t>1,94; 4,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,33</t>
+          <t>2,52; 5,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,85</t>
+          <t>3,1; 5,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,67</t>
+          <t>3,95; 6,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,71</t>
+          <t>4,04; 7,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,76</t>
+          <t>5,45; 8,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,68</t>
+          <t>6,98; 10,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,99</t>
+          <t>6,29; 10,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,23</t>
+          <t>3,32; 5,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,65</t>
+          <t>4,61; 6,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 7,82</t>
+          <t>5,48; 7,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,8</t>
+          <t>5,65; 7,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,2</t>
+          <t>2,08; 3,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,05</t>
+          <t>2,71; 4,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,19</t>
+          <t>2,96; 4,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,86</t>
+          <t>3,21; 4,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,61; 6,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,1</t>
+          <t>6,35; 8,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 8,59</t>
+          <t>6,72; 8,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,0</t>
+          <t>6,33; 8,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 5,93</t>
+          <t>4,73; 5,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 6,15</t>
+          <t>5,02; 6,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6,77</t>
+          <t>5,29; 6,77</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20086</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24529</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16459</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28116</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22663</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49397</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52153</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48761</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42750</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>73925</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68612</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76876</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12961; 30263</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15413; 36080</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9721; 25575</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19314; 38351</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14803; 34077</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36449; 62959</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39376; 66657</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39189; 58927</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30295; 56242</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57541; 94855</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54211; 85726</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63448; 90948</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24337</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30227</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31438</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31660</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>55125</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82944</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69557</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98922</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>79463</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>113171</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>100995</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>130582</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15400; 35814</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20393; 43405</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21921; 42829</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16283; 47312</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41547; 71020</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64539; 101811</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>54324; 87775</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84876; 113485</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>63676; 98357</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92598; 134887</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>81271; 122348</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>90512; 155328</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13204</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24781</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29806</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35069</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46706</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46131</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57822</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54539</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59910</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>70912</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>87628</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>89608</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7360; 21731</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14268; 39283</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20057; 41699</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23965; 47592</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35200; 60212</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34346; 62447</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44138; 73638</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27602; 75724</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47399; 78301</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54109; 89915</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71283; 106591</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60745; 111943</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26924</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35248</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40462</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46870</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55644</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74340</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>91125</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88664</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>82568</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>109588</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>131587</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>135534</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18309; 38804</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23874; 51498</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29083; 52751</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36608; 61311</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>41934; 72873</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57227; 91607</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>72822; 112441</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>68618; 109869</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65859; 101218</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>91965; 133414</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>108665; 155479</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>114078; 160275</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84552</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114785</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>118165</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>141714</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>180138</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>252812</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>270657</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>290887</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>264690</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>367597</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>388822</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>432601</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>68210; 105061</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>92671; 137543</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100365; 144005</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>111138; 169391</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>155861; 207406</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>225291; 283634</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>238343; 303133</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>231360; 325044</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>235596; 301929</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>329798; 410502</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>348475; 426976</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>376179; 481945</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>